--- a/Black box Testing.xlsx
+++ b/Black box Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekter\FrisorBooking-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9F62681-0BC1-4158-95A1-C8633A3BE175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC7F324-7011-4062-B868-8DD375130504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3C6F614-C999-4230-AEC8-3A9C1251EFEC}"/>
+    <workbookView xWindow="-18630" yWindow="1845" windowWidth="14520" windowHeight="11385" xr2:uid="{A3C6F614-C999-4230-AEC8-3A9C1251EFEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t xml:space="preserve">Vi har tænkt os at teste create </t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>Today -1 day</t>
+  </si>
+  <si>
+    <t>AppointmentDateTime Today-1 &lt; X &lt; 1 year +1day</t>
+  </si>
+  <si>
+    <t>DateTime.MinValue</t>
+  </si>
+  <si>
+    <t>DateTime.MaxValue</t>
   </si>
 </sst>
 </file>
@@ -180,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,16 +206,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,15 +552,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868DEF0A-1C02-4C30-BB76-23CBD8DFAAB4}">
-  <dimension ref="B2:H24"/>
+  <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -736,69 +767,104 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
         <v>24</v>
       </c>
     </row>
